--- a/Mifos Automation Excels/Client/4790-SUBMITSA01JAN2015(MINACTPRD-30DAYS&LCKINPRD-15DAYS&ADDCHG'share-activation-flat')-ACT01JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4790-SUBMITSA01JAN2015(MINACTPRD-30DAYS&LCKINPRD-15DAYS&ADDCHG'share-activation-flat')-ACT01JAN2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="Share Charge" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -869,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,9 +910,7 @@
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6">
-        <v>86</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -927,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
